--- a/example/sample.xlsx
+++ b/example/sample.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Username</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifier</t>
+    <t xml:space="preserve">Identifier</t>
   </si>
   <si>
     <t xml:space="preserve">First name</t>
@@ -91,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,12 +176,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.05"/>
